--- a/scraping/men_volleyball_ranking/data.xlsx
+++ b/scraping/men_volleyball_ranking/data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\men_volleyball_ranking\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A16875-3830-4A75-8E22-79B826FD7B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Rank</t>
   </si>
@@ -23,13 +29,256 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Chinese Taipei</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Kyrghyzstan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Iceland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +341,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +393,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +427,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +462,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,14 +638,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,6 +661,897 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>396.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>365.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>357.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>343.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>333.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>332.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>317.04000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>274.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>269.70999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>259.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>255.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>234.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>212.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>209.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>194.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>183.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>178.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>176.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>163.47999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>158.72999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>156.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>154.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>149.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>136.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>135.33000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>135.22999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>134.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>129.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>125.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>125.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>115.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>114.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>112.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>111.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>110.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>95.09</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>92.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>92.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>91.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>86.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>84.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>79.349999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>79.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>75.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>74.760000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>73.66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>71.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>66.03</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>65.260000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>63.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>61.84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>56.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>53.47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>53.17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>50.76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>50.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>49.81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>49.37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>41.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>40.81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>34.68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>34.020000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>23.43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>3.88</v>
       </c>
     </row>
   </sheetData>

--- a/scraping/men_volleyball_ranking/data.xlsx
+++ b/scraping/men_volleyball_ranking/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\men_volleyball_ranking\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A16875-3830-4A75-8E22-79B826FD7B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,24 +37,24 @@
     <t>Brazil</t>
   </si>
   <si>
+    <t>USA</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -76,18 +70,18 @@
     <t>Bulgaria</t>
   </si>
   <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
@@ -100,18 +94,18 @@
     <t>Qatar</t>
   </si>
   <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -187,15 +181,18 @@
     <t>Norway</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>San Marino</t>
   </si>
   <si>
+    <t>Thailand</t>
+  </si>
+  <si>
     <t>Scotland</t>
   </si>
   <si>
-    <t>Thailand</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -205,15 +202,12 @@
     <t>Belize</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
@@ -238,12 +232,12 @@
     <t>Guatemala</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
@@ -253,22 +247,22 @@
     <t>Peru</t>
   </si>
   <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
     <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
   </si>
   <si>
     <t>Iceland</t>
@@ -277,8 +271,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,21 +335,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +379,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -427,7 +413,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -462,10 +447,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -638,21 +622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -671,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>396.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>382.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -682,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>365.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>365.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -693,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>357.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -704,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>343.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>356.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -715,10 +692,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>333.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -726,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>332.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>329.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -737,10 +714,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>317.04000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>324.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -748,10 +725,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>274.74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -759,10 +736,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>269.70999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -770,10 +747,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>259.11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -781,10 +758,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>255.39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -792,10 +769,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>234.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>225.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -803,10 +780,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>212.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -814,10 +791,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>209.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -825,10 +802,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>194.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -836,10 +813,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>183.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -847,10 +824,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>179.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -861,7 +838,7 @@
         <v>178.94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -869,10 +846,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>176.07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -880,10 +857,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>163.47999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -891,10 +868,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>158.72999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -905,7 +882,7 @@
         <v>156.94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -916,7 +893,7 @@
         <v>154.59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -924,10 +901,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>149.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -935,10 +912,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>136.81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -946,10 +923,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>135.33000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -957,10 +934,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>135.22999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -971,7 +948,7 @@
         <v>134.04</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -982,7 +959,7 @@
         <v>129.12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -993,7 +970,7 @@
         <v>125.98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1004,7 +981,7 @@
         <v>125.41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1015,7 +992,7 @@
         <v>115.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1026,7 +1003,7 @@
         <v>114.18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1037,7 +1014,7 @@
         <v>112.85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1048,7 +1025,7 @@
         <v>111.43</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1059,7 +1036,7 @@
         <v>110.82</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1070,7 +1047,7 @@
         <v>106.9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1081,7 +1058,7 @@
         <v>100.92</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1092,7 +1069,7 @@
         <v>95.09</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1103,7 +1080,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1114,7 +1091,7 @@
         <v>92.83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1122,10 +1099,10 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>92.49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92.48999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1136,7 +1113,7 @@
         <v>91.63</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1144,10 +1121,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>87.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1158,7 +1135,7 @@
         <v>86.73</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1169,7 +1146,7 @@
         <v>84.36</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1177,10 +1154,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>79.349999999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79.34999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1191,7 +1168,7 @@
         <v>79.27</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1202,7 +1179,7 @@
         <v>75.52</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1210,10 +1187,10 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>74.760000000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74.76000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1224,7 +1201,7 @@
         <v>73.66</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1235,7 +1212,7 @@
         <v>71.16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1243,10 +1220,10 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1254,10 +1231,10 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>66.03</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1265,10 +1242,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67.34999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1276,10 +1253,10 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>65.260000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1287,10 +1264,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>63.85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65.26000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1298,10 +1275,10 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>63.09</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1309,10 +1286,10 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>61.84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1320,10 +1297,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>56.63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1331,10 +1308,10 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>54.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56.63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1345,7 +1322,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1356,7 +1333,7 @@
         <v>53.17</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1367,7 +1344,7 @@
         <v>50.76</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1378,7 +1355,7 @@
         <v>50.64</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1389,7 +1366,7 @@
         <v>49.81</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1400,7 +1377,7 @@
         <v>49.37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1411,7 +1388,7 @@
         <v>41.63</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1422,7 +1399,7 @@
         <v>40.81</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1430,10 +1407,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>34.68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1441,10 +1418,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34.38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1452,10 +1429,10 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>34.020000000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1466,7 +1443,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1477,7 +1454,7 @@
         <v>26.87</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1485,10 +1462,10 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1496,10 +1473,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>23.43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1507,10 +1484,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>20.48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1518,10 +1495,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>16.420000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1529,10 +1506,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>15.62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1540,10 +1517,10 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>14.27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
